--- a/fastqFiles/fastq_J.PLAGGENBERG_08.05.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_08.05.20.xlsx
@@ -431,8 +431,8 @@
   </sheetPr>
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="M:Q"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1998,6 +1998,9 @@
       <c r="C45" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>4500</v>
+      </c>
       <c r="F45" s="0" t="s">
         <v>14</v>
       </c>
